--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.16218627879971</v>
+        <v>0.1116786666666667</v>
       </c>
       <c r="N2">
-        <v>2.16218627879971</v>
+        <v>0.335036</v>
       </c>
       <c r="O2">
-        <v>0.09842681256262932</v>
+        <v>0.004038118587908127</v>
       </c>
       <c r="P2">
-        <v>0.09842681256262932</v>
+        <v>0.004457407469075136</v>
       </c>
       <c r="Q2">
-        <v>3.968966349132393</v>
+        <v>0.2135633003977778</v>
       </c>
       <c r="R2">
-        <v>3.968966349132393</v>
+        <v>1.92206970358</v>
       </c>
       <c r="S2">
-        <v>0.0140314773113482</v>
+        <v>0.00059189561284797</v>
       </c>
       <c r="T2">
-        <v>0.0140314773113482</v>
+        <v>0.0007656633688084102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89584019897566</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N3">
-        <v>2.89584019897566</v>
+        <v>6.688873</v>
       </c>
       <c r="O3">
-        <v>0.1318241278610517</v>
+        <v>0.08061958235370766</v>
       </c>
       <c r="P3">
-        <v>0.1318241278610517</v>
+        <v>0.0889905337632225</v>
       </c>
       <c r="Q3">
-        <v>5.31568089895548</v>
+        <v>4.263714328673889</v>
       </c>
       <c r="R3">
-        <v>5.31568089895548</v>
+        <v>38.373428958065</v>
       </c>
       <c r="S3">
-        <v>0.01879251406209714</v>
+        <v>0.01181698260365226</v>
       </c>
       <c r="T3">
-        <v>0.01879251406209714</v>
+        <v>0.01528619322912051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H4">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I4">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J4">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1024430374286</v>
+        <v>3.050022333333333</v>
       </c>
       <c r="N4">
-        <v>10.1024430374286</v>
+        <v>9.150067</v>
       </c>
       <c r="O4">
-        <v>0.4598823316100297</v>
+        <v>0.1102838370602107</v>
       </c>
       <c r="P4">
-        <v>0.4598823316100297</v>
+        <v>0.1217349090495885</v>
       </c>
       <c r="Q4">
-        <v>18.54431177032513</v>
+        <v>5.832562791403889</v>
       </c>
       <c r="R4">
-        <v>18.54431177032513</v>
+        <v>52.493065122635</v>
       </c>
       <c r="S4">
-        <v>0.06555966137550258</v>
+        <v>0.01616508230328976</v>
       </c>
       <c r="T4">
-        <v>0.06555966137550258</v>
+        <v>0.02091080100061684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H5">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I5">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J5">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.80698246769859</v>
+        <v>14.46031833333333</v>
       </c>
       <c r="N5">
-        <v>6.80698246769859</v>
+        <v>43.380955</v>
       </c>
       <c r="O5">
-        <v>0.3098667279662893</v>
+        <v>0.5228615454658783</v>
       </c>
       <c r="P5">
-        <v>0.3098667279662893</v>
+        <v>0.5771516876771821</v>
       </c>
       <c r="Q5">
-        <v>12.49507714405976</v>
+        <v>27.65249084936389</v>
       </c>
       <c r="R5">
-        <v>12.49507714405976</v>
+        <v>248.872417644275</v>
       </c>
       <c r="S5">
-        <v>0.04417381656277975</v>
+        <v>0.07663951618827591</v>
       </c>
       <c r="T5">
-        <v>0.04417381656277975</v>
+        <v>0.09913922129987837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69574730063551</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H6">
-        <v>4.69574730063551</v>
+        <v>5.736905</v>
       </c>
       <c r="I6">
-        <v>0.3646786890278171</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J6">
-        <v>0.3646786890278171</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.16218627879971</v>
+        <v>7.80447</v>
       </c>
       <c r="N6">
-        <v>2.16218627879971</v>
+        <v>15.60894</v>
       </c>
       <c r="O6">
-        <v>0.09842681256262932</v>
+        <v>0.2821969165322951</v>
       </c>
       <c r="P6">
-        <v>0.09842681256262932</v>
+        <v>0.2076654620409319</v>
       </c>
       <c r="Q6">
-        <v>10.15308038214488</v>
+        <v>14.92450098845</v>
       </c>
       <c r="R6">
-        <v>10.15308038214488</v>
+        <v>89.54700593070001</v>
       </c>
       <c r="S6">
-        <v>0.03589416097052634</v>
+        <v>0.04136359872016974</v>
       </c>
       <c r="T6">
-        <v>0.03589416097052634</v>
+        <v>0.03567137138674157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H7">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J7">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.89584019897566</v>
+        <v>0.1116786666666667</v>
       </c>
       <c r="N7">
-        <v>2.89584019897566</v>
+        <v>0.335036</v>
       </c>
       <c r="O7">
-        <v>0.1318241278610517</v>
+        <v>0.004038118587908127</v>
       </c>
       <c r="P7">
-        <v>0.1318241278610517</v>
+        <v>0.004457407469075136</v>
       </c>
       <c r="Q7">
-        <v>13.59813379741176</v>
+        <v>0.5275810402951111</v>
       </c>
       <c r="R7">
-        <v>13.59813379741176</v>
+        <v>4.748229362656</v>
       </c>
       <c r="S7">
-        <v>0.04807345013060366</v>
+        <v>0.001462203021730852</v>
       </c>
       <c r="T7">
-        <v>0.04807345013060366</v>
+        <v>0.001891474218086225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H8">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J8">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.1024430374286</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N8">
-        <v>10.1024430374286</v>
+        <v>6.688873</v>
       </c>
       <c r="O8">
-        <v>0.4598823316100297</v>
+        <v>0.08061958235370766</v>
       </c>
       <c r="P8">
-        <v>0.4598823316100297</v>
+        <v>0.0889905337632225</v>
       </c>
       <c r="Q8">
-        <v>47.43851962282935</v>
+        <v>10.53296534026755</v>
       </c>
       <c r="R8">
-        <v>47.43851962282935</v>
+        <v>94.79668806240799</v>
       </c>
       <c r="S8">
-        <v>0.1677092857986015</v>
+        <v>0.02919235638132591</v>
       </c>
       <c r="T8">
-        <v>0.1677092857986015</v>
+        <v>0.03776260111615786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H9">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J9">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.80698246769859</v>
+        <v>3.050022333333333</v>
       </c>
       <c r="N9">
-        <v>6.80698246769859</v>
+        <v>9.150067</v>
       </c>
       <c r="O9">
-        <v>0.3098667279662893</v>
+        <v>0.1102838370602107</v>
       </c>
       <c r="P9">
-        <v>0.3098667279662893</v>
+        <v>0.1217349090495885</v>
       </c>
       <c r="Q9">
-        <v>31.9638695481689</v>
+        <v>14.40860643820355</v>
       </c>
       <c r="R9">
-        <v>31.9638695481689</v>
+        <v>129.677457943832</v>
       </c>
       <c r="S9">
-        <v>0.1130017921280856</v>
+        <v>0.03993378507515535</v>
       </c>
       <c r="T9">
-        <v>0.1130017921280856</v>
+        <v>0.05165748105953263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H10">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J10">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.16218627879971</v>
+        <v>14.46031833333333</v>
       </c>
       <c r="N10">
-        <v>2.16218627879971</v>
+        <v>43.380955</v>
       </c>
       <c r="O10">
-        <v>0.09842681256262932</v>
+        <v>0.5228615454658783</v>
       </c>
       <c r="P10">
-        <v>0.09842681256262932</v>
+        <v>0.5771516876771821</v>
       </c>
       <c r="Q10">
-        <v>0.6217055964359618</v>
+        <v>68.31197055807556</v>
       </c>
       <c r="R10">
-        <v>0.6217055964359618</v>
+        <v>614.8077350226799</v>
       </c>
       <c r="S10">
-        <v>0.002197914319086208</v>
+        <v>0.1893282020038745</v>
       </c>
       <c r="T10">
-        <v>0.002197914319086208</v>
+        <v>0.2449108690960337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287535631195055</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H11">
-        <v>0.287535631195055</v>
+        <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.02233044291348628</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J11">
-        <v>0.02233044291348628</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.89584019897566</v>
+        <v>7.80447</v>
       </c>
       <c r="N11">
-        <v>2.89584019897566</v>
+        <v>15.60894</v>
       </c>
       <c r="O11">
-        <v>0.1318241278610517</v>
+        <v>0.2821969165322951</v>
       </c>
       <c r="P11">
-        <v>0.1318241278610517</v>
+        <v>0.2076654620409319</v>
       </c>
       <c r="Q11">
-        <v>0.83265723945248</v>
+        <v>36.86908632104</v>
       </c>
       <c r="R11">
-        <v>0.83265723945248</v>
+        <v>221.21451792624</v>
       </c>
       <c r="S11">
-        <v>0.002943691161821331</v>
+        <v>0.1021835231169885</v>
       </c>
       <c r="T11">
-        <v>0.002943691161821331</v>
+        <v>0.0881215976242995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H12">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I12">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J12">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>10.1024430374286</v>
+        <v>0.1116786666666667</v>
       </c>
       <c r="N12">
-        <v>10.1024430374286</v>
+        <v>0.335036</v>
       </c>
       <c r="O12">
-        <v>0.4598823316100297</v>
+        <v>0.004038118587908127</v>
       </c>
       <c r="P12">
-        <v>0.4598823316100297</v>
+        <v>0.004457407469075136</v>
       </c>
       <c r="Q12">
-        <v>2.904812335379121</v>
+        <v>0.03794055620044445</v>
       </c>
       <c r="R12">
-        <v>2.904812335379121</v>
+        <v>0.341465005804</v>
       </c>
       <c r="S12">
-        <v>0.01026937615293874</v>
+        <v>0.000105153126601</v>
       </c>
       <c r="T12">
-        <v>0.01026937615293874</v>
+        <v>0.0001360238113046102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H13">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I13">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J13">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.80698246769859</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N13">
-        <v>6.80698246769859</v>
+        <v>6.688873</v>
       </c>
       <c r="O13">
-        <v>0.3098667279662893</v>
+        <v>0.08061958235370766</v>
       </c>
       <c r="P13">
-        <v>0.3098667279662893</v>
+        <v>0.0889905337632225</v>
       </c>
       <c r="Q13">
-        <v>1.957250000383387</v>
+        <v>0.7574695315552222</v>
       </c>
       <c r="R13">
-        <v>1.957250000383387</v>
+        <v>6.817225783997001</v>
       </c>
       <c r="S13">
-        <v>0.006919461279640006</v>
+        <v>0.002099344277591096</v>
       </c>
       <c r="T13">
-        <v>0.006919461279640006</v>
+        <v>0.002715666372546539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H14">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I14">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J14">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.16218627879971</v>
+        <v>3.050022333333333</v>
       </c>
       <c r="N14">
-        <v>2.16218627879971</v>
+        <v>9.150067</v>
       </c>
       <c r="O14">
-        <v>0.09842681256262932</v>
+        <v>0.1102838370602107</v>
       </c>
       <c r="P14">
-        <v>0.09842681256262932</v>
+        <v>0.1217349090495885</v>
       </c>
       <c r="Q14">
-        <v>0.6851222653873186</v>
+        <v>1.036183070629222</v>
       </c>
       <c r="R14">
-        <v>0.6851222653873186</v>
+        <v>9.325647635663001</v>
       </c>
       <c r="S14">
-        <v>0.002422111118272162</v>
+        <v>0.00287180527960766</v>
       </c>
       <c r="T14">
-        <v>0.002422111118272162</v>
+        <v>0.003714905225207264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H15">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I15">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J15">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.89584019897566</v>
+        <v>14.46031833333333</v>
       </c>
       <c r="N15">
-        <v>2.89584019897566</v>
+        <v>43.380955</v>
       </c>
       <c r="O15">
-        <v>0.1318241278610517</v>
+        <v>0.5228615454658783</v>
       </c>
       <c r="P15">
-        <v>0.1318241278610517</v>
+        <v>0.5771516876771821</v>
       </c>
       <c r="Q15">
-        <v>0.9175918914919966</v>
+        <v>4.912599127277223</v>
       </c>
       <c r="R15">
-        <v>0.9175918914919966</v>
+        <v>44.21339214549501</v>
       </c>
       <c r="S15">
-        <v>0.003243960435532922</v>
+        <v>0.01361538178938169</v>
       </c>
       <c r="T15">
-        <v>0.003243960435532922</v>
+        <v>0.01761256353685511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.316865513441168</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H16">
-        <v>0.316865513441168</v>
+        <v>1.019189</v>
       </c>
       <c r="I16">
-        <v>0.02460824500164489</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J16">
-        <v>0.02460824500164489</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.1024430374286</v>
+        <v>7.80447</v>
       </c>
       <c r="N16">
-        <v>10.1024430374286</v>
+        <v>15.60894</v>
       </c>
       <c r="O16">
-        <v>0.4598823316100297</v>
+        <v>0.2821969165322951</v>
       </c>
       <c r="P16">
-        <v>0.4598823316100297</v>
+        <v>0.2076654620409319</v>
       </c>
       <c r="Q16">
-        <v>3.201115800064966</v>
+        <v>2.65140999161</v>
       </c>
       <c r="R16">
-        <v>3.201115800064966</v>
+        <v>15.90845994966</v>
       </c>
       <c r="S16">
-        <v>0.01131689708818731</v>
+        <v>0.007348443945997203</v>
       </c>
       <c r="T16">
-        <v>0.01131689708818731</v>
+        <v>0.006337192150171871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H17">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I17">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J17">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>6.80698246769859</v>
+        <v>0.1116786666666667</v>
       </c>
       <c r="N17">
-        <v>6.80698246769859</v>
+        <v>0.335036</v>
       </c>
       <c r="O17">
-        <v>0.3098667279662893</v>
+        <v>0.004038118587908127</v>
       </c>
       <c r="P17">
-        <v>0.3098667279662893</v>
+        <v>0.004457407469075136</v>
       </c>
       <c r="Q17">
-        <v>2.156897994612342</v>
+        <v>0.03676666450888889</v>
       </c>
       <c r="R17">
-        <v>2.156897994612342</v>
+        <v>0.33089998058</v>
       </c>
       <c r="S17">
-        <v>0.007625276359652496</v>
+        <v>0.0001018996587022727</v>
       </c>
       <c r="T17">
-        <v>0.007625276359652496</v>
+        <v>0.0001318151955663324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H18">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I18">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J18">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.16218627879971</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N18">
-        <v>2.16218627879971</v>
+        <v>6.688873</v>
       </c>
       <c r="O18">
-        <v>0.09842681256262932</v>
+        <v>0.08061958235370766</v>
       </c>
       <c r="P18">
-        <v>0.09842681256262932</v>
+        <v>0.0889905337632225</v>
       </c>
       <c r="Q18">
-        <v>12.41229267996271</v>
+        <v>0.7340332069794444</v>
       </c>
       <c r="R18">
-        <v>12.41229267996271</v>
+        <v>6.606298862815</v>
       </c>
       <c r="S18">
-        <v>0.0438811488433964</v>
+        <v>0.00203438996347511</v>
       </c>
       <c r="T18">
-        <v>0.0438811488433964</v>
+        <v>0.002631642876029325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H19">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I19">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J19">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.89584019897566</v>
+        <v>3.050022333333333</v>
       </c>
       <c r="N19">
-        <v>2.89584019897566</v>
+        <v>9.150067</v>
       </c>
       <c r="O19">
-        <v>0.1318241278610517</v>
+        <v>0.1102838370602107</v>
       </c>
       <c r="P19">
-        <v>0.1318241278610517</v>
+        <v>0.1217349090495885</v>
       </c>
       <c r="Q19">
-        <v>16.62392202583067</v>
+        <v>1.004123269209444</v>
       </c>
       <c r="R19">
-        <v>16.62392202583067</v>
+        <v>9.037109422884999</v>
       </c>
       <c r="S19">
-        <v>0.05877051207099659</v>
+        <v>0.00278295080051973</v>
       </c>
       <c r="T19">
-        <v>0.05877051207099659</v>
+        <v>0.003599964991971145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H20">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I20">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J20">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.1024430374286</v>
+        <v>14.46031833333333</v>
       </c>
       <c r="N20">
-        <v>10.1024430374286</v>
+        <v>43.380955</v>
       </c>
       <c r="O20">
-        <v>0.4598823316100297</v>
+        <v>0.5228615454658783</v>
       </c>
       <c r="P20">
-        <v>0.4598823316100297</v>
+        <v>0.5771516876771821</v>
       </c>
       <c r="Q20">
-        <v>57.99430002526204</v>
+        <v>4.760601901169444</v>
       </c>
       <c r="R20">
-        <v>57.99430002526204</v>
+        <v>42.845417110525</v>
       </c>
       <c r="S20">
-        <v>0.2050271111947995</v>
+        <v>0.01319411797143785</v>
       </c>
       <c r="T20">
-        <v>0.2050271111947995</v>
+        <v>0.01706762576910919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7406213339089</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H21">
-        <v>5.7406213339089</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I21">
-        <v>0.4458251537453239</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J21">
-        <v>0.4458251537453239</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.80698246769859</v>
+        <v>7.80447</v>
       </c>
       <c r="N21">
-        <v>6.80698246769859</v>
+        <v>15.60894</v>
       </c>
       <c r="O21">
-        <v>0.3098667279662893</v>
+        <v>0.2821969165322951</v>
       </c>
       <c r="P21">
-        <v>0.3098667279662893</v>
+        <v>0.2076654620409319</v>
       </c>
       <c r="Q21">
-        <v>39.07630877361437</v>
+        <v>2.56937460595</v>
       </c>
       <c r="R21">
-        <v>39.07630877361437</v>
+        <v>15.4162476357</v>
       </c>
       <c r="S21">
-        <v>0.1381463816361314</v>
+        <v>0.007121080982510473</v>
       </c>
       <c r="T21">
-        <v>0.1381463816361314</v>
+        <v>0.006141117607311302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.7410415</v>
+      </c>
+      <c r="H22">
+        <v>11.482083</v>
+      </c>
+      <c r="I22">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J22">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1116786666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.335036</v>
+      </c>
+      <c r="O22">
+        <v>0.004038118587908127</v>
+      </c>
+      <c r="P22">
+        <v>0.004457407469075136</v>
+      </c>
+      <c r="Q22">
+        <v>0.641151859998</v>
+      </c>
+      <c r="R22">
+        <v>3.846911159988</v>
+      </c>
+      <c r="S22">
+        <v>0.001776967168026032</v>
+      </c>
+      <c r="T22">
+        <v>0.001532430875309557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.7410415</v>
+      </c>
+      <c r="H23">
+        <v>11.482083</v>
+      </c>
+      <c r="I23">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J23">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.229624333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.688873</v>
+      </c>
+      <c r="O23">
+        <v>0.08061958235370766</v>
+      </c>
+      <c r="P23">
+        <v>0.0889905337632225</v>
+      </c>
+      <c r="Q23">
+        <v>12.8003658270765</v>
+      </c>
+      <c r="R23">
+        <v>76.802194962459</v>
+      </c>
+      <c r="S23">
+        <v>0.03547650912766327</v>
+      </c>
+      <c r="T23">
+        <v>0.03059443016936826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.7410415</v>
+      </c>
+      <c r="H24">
+        <v>11.482083</v>
+      </c>
+      <c r="I24">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J24">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.050022333333333</v>
+      </c>
+      <c r="N24">
+        <v>9.150067</v>
+      </c>
+      <c r="O24">
+        <v>0.1102838370602107</v>
+      </c>
+      <c r="P24">
+        <v>0.1217349090495885</v>
+      </c>
+      <c r="Q24">
+        <v>17.5103047915935</v>
+      </c>
+      <c r="R24">
+        <v>105.061828749561</v>
+      </c>
+      <c r="S24">
+        <v>0.04853021360163819</v>
+      </c>
+      <c r="T24">
+        <v>0.04185175677226058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.7410415</v>
+      </c>
+      <c r="H25">
+        <v>11.482083</v>
+      </c>
+      <c r="I25">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J25">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.46031833333333</v>
+      </c>
+      <c r="N25">
+        <v>43.380955</v>
+      </c>
+      <c r="O25">
+        <v>0.5228615454658783</v>
+      </c>
+      <c r="P25">
+        <v>0.5771516876771821</v>
+      </c>
+      <c r="Q25">
+        <v>83.01728765487749</v>
+      </c>
+      <c r="R25">
+        <v>498.103725929265</v>
+      </c>
+      <c r="S25">
+        <v>0.2300843275129083</v>
+      </c>
+      <c r="T25">
+        <v>0.1984214079753057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.7410415</v>
+      </c>
+      <c r="H26">
+        <v>11.482083</v>
+      </c>
+      <c r="I26">
+        <v>0.4400482871768651</v>
+      </c>
+      <c r="J26">
+        <v>0.3437942090646517</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.80447</v>
+      </c>
+      <c r="N26">
+        <v>15.60894</v>
+      </c>
+      <c r="O26">
+        <v>0.2821969165322951</v>
+      </c>
+      <c r="P26">
+        <v>0.2076654620409319</v>
+      </c>
+      <c r="Q26">
+        <v>44.805786155505</v>
+      </c>
+      <c r="R26">
+        <v>179.22314462202</v>
+      </c>
+      <c r="S26">
+        <v>0.1241802697666292</v>
+      </c>
+      <c r="T26">
+        <v>0.07139418327240764</v>
       </c>
     </row>
   </sheetData>
